--- a/Module 1/2. Nhap_Mon_Lap_Trinh_Can_Ban/Bai_Tap/[TH]_Tìm_GTLN_Trong_Dãy_Số.xlsx
+++ b/Module 1/2. Nhap_Mon_Lap_Trinh_Can_Ban/Bai_Tap/[TH]_Tìm_GTLN_Trong_Dãy_Số.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C0520G1-LeToan\Module 1\2. Nhap_Mon_Lap_Trinh_Can_Ban\Bai_Tap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A70C54-C397-4406-A972-1A738ADD8B12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA60F9ED-092A-4EEB-A3D9-900DEA31BF1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,6 +171,1426 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Flowchart: Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF8C5761-7D36-4A2C-87FB-0DA2C1D817C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="1021080"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25FDA7CA-06A0-432E-B0F8-BD2D7346D8A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3703320" y="2758440"/>
+          <a:ext cx="914400" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Max</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> = a1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>124968</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Flowchart: Decision 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB6AC466-2742-495D-8BD1-AB5FEB639CA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3329940" y="3535680"/>
+          <a:ext cx="1676400" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>i &lt;= N</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Flowchart: Data 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC77504A-07CD-481C-81FF-096C124BDE4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3009900" y="1859280"/>
+          <a:ext cx="2293620" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartInputOutput">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Input</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> vào N số lượng số tự nhiên</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>499110</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18A73D61-A823-4F8B-8E96-73F54E088BE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="4"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4152900" y="1478280"/>
+          <a:ext cx="3810" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>215151</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>218199</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>94488</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Flowchart: Summing Junction 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4824A10-E431-4BE9-9BA3-0DA4ABDD80C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6311151" y="5409304"/>
+          <a:ext cx="612648" cy="601890"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartSummingJunction">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>499110</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45E75E5E-8B24-4552-80B5-709DD97FA381}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="4"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4156710" y="2362200"/>
+          <a:ext cx="3810" cy="396240"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17B97A90-F5F9-4083-831A-3D2A1E06F1B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4160520" y="3101340"/>
+          <a:ext cx="7620" cy="434340"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>102108</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Flowchart: Decision 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9431BF62-AD6F-4B50-9D52-BC8B15F8592C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3329940" y="4610100"/>
+          <a:ext cx="1676400" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>ai</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> &gt; Max</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>124968</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F247936-6557-4EB1-919F-FE194B7D06B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="18" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4168140" y="4148328"/>
+          <a:ext cx="0" cy="461772"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="TextBox 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F75702FC-13E3-48EC-8F41-E83EAD39C22D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4290060" y="4251960"/>
+          <a:ext cx="586740" cy="236220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Đúng</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F871E97D-7C7B-4E15-AAA3-44D354B3BA5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3710940" y="5676900"/>
+          <a:ext cx="914400" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Max</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> = ai</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>i = i +1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>102108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2FCC0C3-D1CF-419E-ADA0-7B7CF540FCDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="2"/>
+          <a:endCxn id="24" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4168140" y="5222748"/>
+          <a:ext cx="0" cy="454152"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="TextBox 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FA4375B-4E84-4ABB-8ABD-7A338C11C21C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4229100" y="5295900"/>
+          <a:ext cx="586740" cy="236220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Đúng</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504190</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>21590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>516890</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>143510</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Connector: Elbow 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B466788C-BB4A-44D0-AC11-190294594F53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="2735580" y="4739640"/>
+          <a:ext cx="2865120" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector5">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -13737"/>
+            <a:gd name="adj2" fmla="val 23220000"/>
+            <a:gd name="adj3" fmla="val 100133"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Rectangle 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E064451D-C97D-464B-B0A6-45A7CD07A575}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2110740" y="5676900"/>
+          <a:ext cx="914400" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>i = i +1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Connector: Elbow 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3866528A-AAE9-44F6-9146-0CDD376A0DC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="1"/>
+          <a:endCxn id="41" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="2567940" y="4916424"/>
+          <a:ext cx="762000" cy="760476"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="TextBox 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2596A31E-5E82-4F45-9081-D7104FAB4A3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2667000" y="5295900"/>
+          <a:ext cx="586740" cy="236220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Sai</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600636</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>281941</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Connector: Elbow 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54D176DF-042E-4982-9AF2-937A34127806}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="41" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1819836" y="3245224"/>
+          <a:ext cx="290905" cy="2564578"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>445994</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>12552</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>322729</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Flowchart: Data 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAF53D50-31B8-467C-8D57-36519DF0406C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5932394" y="4674199"/>
+          <a:ext cx="1705535" cy="346037"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartInputOutput">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Display</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Max</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>518608</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>521475</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Straight Arrow Connector 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B14888EE-C728-4141-B3E2-48CD02DEABB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="49" idx="3"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6614608" y="5020236"/>
+          <a:ext cx="2867" cy="389068"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>3318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>79562</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>12552</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="Connector: Elbow 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B1260A2-7452-4A55-864F-1E1DFB4C8E9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="49" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5006340" y="3768494"/>
+          <a:ext cx="1778822" cy="905705"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>134022</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>128196</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="TextBox 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3CD7001-7163-4902-9054-11073DB0B247}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5643282" y="3485029"/>
+          <a:ext cx="586740" cy="229049"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Sai</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -441,8 +1861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A11:A24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
